--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-200550.6900807487</v>
+        <v>-202898.8389639393</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5860219.813005074</v>
+        <v>5860219.813005077</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>57.44899573820091</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>127.2728777867571</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>77.72878559814552</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>94.3220848936688</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>179.5608676533254</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>48.28463004918746</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0725670814548</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>25.28354595507033</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.6431782479674</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>286.3569875172132</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.31590541686257</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>221.4910668316321</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I11" t="n">
-        <v>59.02800318540986</v>
+        <v>59.02800318540977</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H12" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I12" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767498</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986294</v>
+        <v>161.1720450257138</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.5602830177929</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>133.0108528413789</v>
+        <v>220.4165116571834</v>
       </c>
       <c r="U13" t="n">
         <v>286.2229134700513</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I14" t="n">
-        <v>59.02800318540986</v>
+        <v>59.02800318540977</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H15" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I15" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767498</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>31.95463798621928</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>73.35112289610396</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T16" t="n">
         <v>220.4165116571834</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I17" t="n">
-        <v>59.02800318540986</v>
+        <v>59.02800318540977</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H18" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I18" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767498</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>31.95463798622154</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>102.4585828702529</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.06186232216687</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>193.307572319536</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T19" t="n">
-        <v>216.7044720295073</v>
+        <v>220.4165116571834</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I20" t="n">
-        <v>59.02800318541009</v>
+        <v>59.02800318540977</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H21" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I21" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767498</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.4165116571834</v>
       </c>
       <c r="U22" t="n">
         <v>286.2229134700513</v>
       </c>
       <c r="V22" t="n">
-        <v>58.88255333670229</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>260.1289208967246</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I23" t="n">
-        <v>59.02800318540986</v>
+        <v>59.02800318540977</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H24" t="n">
-        <v>91.93595037119256</v>
+        <v>91.93595037119255</v>
       </c>
       <c r="I24" t="n">
-        <v>17.03013564767502</v>
+        <v>17.03013564767498</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2288547737337</v>
+        <v>35.14906298150282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>193.307572319536</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T25" t="n">
         <v>220.4165116571834</v>
@@ -2533,16 +2533,16 @@
         <v>286.2229134700513</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>154.5852643570859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>140.5010290442966</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>143.5437558438627</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,7 +2767,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>159.8902235615874</v>
+        <v>126.0955237083904</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>139.4881144206583</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>78.80827132237361</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>101.64033639962</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3490,7 +3490,7 @@
         <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335033</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800357</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>101.64033639962</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1783.124109094748</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C2" t="n">
-        <v>1414.161592154336</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="D2" t="n">
-        <v>1055.895893547586</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="E2" t="n">
-        <v>670.1076409493412</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>663.1621402001377</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.723949158869</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.723949158869</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.723949158869</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>2169.723949158869</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>2169.723949158869</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>404.8646000824888</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545818</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545818</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545818</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545818</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>632.8541509805061</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>632.8541509805061</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>632.8541509805061</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>632.8541509805061</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>404.8646000824888</v>
+        <v>2469.159540120205</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.8646000824888</v>
+        <v>2248.366960976675</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223453</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>1257.755191400005</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>899.4894927932542</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>513.7012401950099</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>102.7153354054023</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628376</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284805</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1540.921096014691</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.921096014691</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1540.921096014691</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="C7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="D7" t="n">
-        <v>363.7239216122612</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E7" t="n">
-        <v>215.810828029868</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F7" t="n">
-        <v>215.810828029868</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750363</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763.586886263858</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834949</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564835</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="X8" t="n">
-        <v>1894.539591564835</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y8" t="n">
-        <v>1894.539591564835</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,10 +4884,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.7161456655658</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>504.4006338714527</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2397.702401960704</v>
       </c>
       <c r="C11" t="n">
-        <v>2028.739885020292</v>
+        <v>2028.739885020293</v>
       </c>
       <c r="D11" t="n">
         <v>1670.474186413542</v>
       </c>
       <c r="E11" t="n">
-        <v>1284.685933815298</v>
+        <v>1284.685933815297</v>
       </c>
       <c r="F11" t="n">
-        <v>873.70002902569</v>
+        <v>873.7000290256899</v>
       </c>
       <c r="G11" t="n">
-        <v>458.1703491999442</v>
+        <v>458.170349199944</v>
       </c>
       <c r="H11" t="n">
         <v>155.9041454432206</v>
@@ -5039,25 +5039,25 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J11" t="n">
-        <v>414.5301382692639</v>
+        <v>315.6802955203492</v>
       </c>
       <c r="K11" t="n">
-        <v>1012.249552116584</v>
+        <v>913.3997093676699</v>
       </c>
       <c r="L11" t="n">
-        <v>1806.049966502443</v>
+        <v>1707.200123753529</v>
       </c>
       <c r="M11" t="n">
-        <v>2260.894023787131</v>
+        <v>2607.062579196122</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.669732195773</v>
+        <v>3506.853752399195</v>
       </c>
       <c r="O11" t="n">
-        <v>3724.129384147084</v>
+        <v>3934.32122490039</v>
       </c>
       <c r="P11" t="n">
-        <v>4373.042702348161</v>
+        <v>4583.234543101466</v>
       </c>
       <c r="Q11" t="n">
         <v>4783.127819896831</v>
@@ -5112,34 +5112,34 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H12" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I12" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J12" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304508</v>
       </c>
       <c r="K12" t="n">
-        <v>628.6710633926953</v>
+        <v>628.6710633926957</v>
       </c>
       <c r="L12" t="n">
-        <v>943.308394242523</v>
+        <v>943.3083942425237</v>
       </c>
       <c r="M12" t="n">
-        <v>1329.832187032395</v>
+        <v>1329.832187032396</v>
       </c>
       <c r="N12" t="n">
-        <v>1740.994759395721</v>
+        <v>1740.994759395723</v>
       </c>
       <c r="O12" t="n">
-        <v>2094.908390780839</v>
+        <v>2094.90839078084</v>
       </c>
       <c r="P12" t="n">
-        <v>2473.990428215981</v>
+        <v>2359.622215301019</v>
       </c>
       <c r="Q12" t="n">
-        <v>2601.025413179288</v>
+        <v>2570.987282611808</v>
       </c>
       <c r="R12" t="n">
         <v>2601.025413179288</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.2226696395471</v>
+        <v>701.9236762791775</v>
       </c>
       <c r="C13" t="n">
-        <v>393.2864867116386</v>
+        <v>539.1236307986585</v>
       </c>
       <c r="D13" t="n">
-        <v>243.1698472993029</v>
+        <v>539.1236307986585</v>
       </c>
       <c r="E13" t="n">
-        <v>243.1698472993029</v>
+        <v>391.2105372162653</v>
       </c>
       <c r="F13" t="n">
-        <v>96.27989980139252</v>
+        <v>244.320589718355</v>
       </c>
       <c r="G13" t="n">
-        <v>96.27989980139252</v>
+        <v>244.320589718355</v>
       </c>
       <c r="H13" t="n">
         <v>96.27989980139252</v>
@@ -5197,52 +5197,52 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J13" t="n">
-        <v>127.1906975445495</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8234703720052</v>
+        <v>307.8234703720054</v>
       </c>
       <c r="L13" t="n">
-        <v>594.4976645070651</v>
+        <v>594.4976645070655</v>
       </c>
       <c r="M13" t="n">
-        <v>907.1445306290196</v>
+        <v>907.1445306290201</v>
       </c>
       <c r="N13" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496554</v>
       </c>
       <c r="O13" t="n">
         <v>1488.708863521204</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470092</v>
       </c>
       <c r="Q13" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="R13" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="S13" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="T13" t="n">
-        <v>1623.427932790565</v>
+        <v>1535.139388532178</v>
       </c>
       <c r="U13" t="n">
-        <v>1334.313878780412</v>
+        <v>1246.025334522025</v>
       </c>
       <c r="V13" t="n">
-        <v>1079.629390574525</v>
+        <v>991.340846316138</v>
       </c>
       <c r="W13" t="n">
-        <v>790.2122205375645</v>
+        <v>701.9236762791775</v>
       </c>
       <c r="X13" t="n">
-        <v>562.2226696395471</v>
+        <v>701.9236762791775</v>
       </c>
       <c r="Y13" t="n">
-        <v>562.2226696395471</v>
+        <v>701.9236762791775</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>1284.685933815298</v>
       </c>
       <c r="F14" t="n">
-        <v>873.7000290256901</v>
+        <v>873.7000290256899</v>
       </c>
       <c r="G14" t="n">
-        <v>458.1703491999442</v>
+        <v>458.170349199944</v>
       </c>
       <c r="H14" t="n">
         <v>155.9041454432206</v>
@@ -5276,34 +5276,34 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J14" t="n">
-        <v>414.5301382692639</v>
+        <v>247.1244892489111</v>
       </c>
       <c r="K14" t="n">
-        <v>691.3455936711312</v>
+        <v>523.9399446507787</v>
       </c>
       <c r="L14" t="n">
-        <v>1485.14600805699</v>
+        <v>1317.740359036638</v>
       </c>
       <c r="M14" t="n">
-        <v>2385.008463499582</v>
+        <v>2217.60281447923</v>
       </c>
       <c r="N14" t="n">
-        <v>3284.799636702655</v>
+        <v>3117.393987682304</v>
       </c>
       <c r="O14" t="n">
-        <v>4089.259288653967</v>
+        <v>3921.853639633616</v>
       </c>
       <c r="P14" t="n">
-        <v>4419.591885765276</v>
+        <v>4570.766957834693</v>
       </c>
       <c r="Q14" t="n">
-        <v>4718.068564222579</v>
+        <v>4783.127819896831</v>
       </c>
       <c r="R14" t="n">
         <v>4813.994990069626</v>
       </c>
       <c r="S14" t="n">
-        <v>4693.285200474678</v>
+        <v>4693.285200474677</v>
       </c>
       <c r="T14" t="n">
         <v>4485.305929975225</v>
@@ -5349,31 +5349,31 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H15" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I15" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J15" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304508</v>
       </c>
       <c r="K15" t="n">
-        <v>366.8504787502425</v>
+        <v>535.0627614491673</v>
       </c>
       <c r="L15" t="n">
-        <v>1048.619751450495</v>
+        <v>849.7000922989952</v>
       </c>
       <c r="M15" t="n">
-        <v>1435.143544240367</v>
+        <v>1236.223885088868</v>
       </c>
       <c r="N15" t="n">
-        <v>1846.306116603693</v>
+        <v>1647.386457452194</v>
       </c>
       <c r="O15" t="n">
-        <v>2200.21974798881</v>
+        <v>2001.300088837312</v>
       </c>
       <c r="P15" t="n">
-        <v>2473.990428215981</v>
+        <v>2266.013913357491</v>
       </c>
       <c r="Q15" t="n">
         <v>2601.025413179288</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>615.2916236234297</v>
+        <v>246.3965392137283</v>
       </c>
       <c r="C16" t="n">
-        <v>615.2916236234297</v>
+        <v>246.3965392137283</v>
       </c>
       <c r="D16" t="n">
-        <v>465.1749842110939</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="E16" t="n">
-        <v>317.2618906287008</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="F16" t="n">
-        <v>170.3719431307904</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="G16" t="n">
-        <v>170.3719431307904</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="H16" t="n">
         <v>96.27989980139252</v>
@@ -5434,52 +5434,52 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J16" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8234703720053</v>
+        <v>307.8234703720054</v>
       </c>
       <c r="L16" t="n">
-        <v>594.4976645070651</v>
+        <v>594.4976645070655</v>
       </c>
       <c r="M16" t="n">
-        <v>907.1445306290195</v>
+        <v>907.1445306290177</v>
       </c>
       <c r="N16" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496551</v>
       </c>
       <c r="O16" t="n">
-        <v>1488.708863521204</v>
+        <v>1488.708863521202</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.00438647009</v>
       </c>
       <c r="Q16" t="n">
-        <v>1757.78232960004</v>
+        <v>1757.782329600038</v>
       </c>
       <c r="R16" t="n">
-        <v>1757.78232960004</v>
+        <v>1757.782329600038</v>
       </c>
       <c r="S16" t="n">
-        <v>1757.78232960004</v>
+        <v>1562.5221555399</v>
       </c>
       <c r="T16" t="n">
-        <v>1535.139388532178</v>
+        <v>1339.879214472038</v>
       </c>
       <c r="U16" t="n">
-        <v>1535.139388532178</v>
+        <v>1050.765160461885</v>
       </c>
       <c r="V16" t="n">
-        <v>1535.139388532178</v>
+        <v>796.0806722559985</v>
       </c>
       <c r="W16" t="n">
-        <v>1245.722218495217</v>
+        <v>506.6635022190379</v>
       </c>
       <c r="X16" t="n">
-        <v>1017.7326675972</v>
+        <v>278.6739513210205</v>
       </c>
       <c r="Y16" t="n">
-        <v>796.9400884536694</v>
+        <v>278.6739513210205</v>
       </c>
     </row>
     <row r="17">
@@ -5504,43 +5504,43 @@
         <v>873.7000290256901</v>
       </c>
       <c r="G17" t="n">
-        <v>458.1703491999442</v>
+        <v>458.1703491999441</v>
       </c>
       <c r="H17" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432206</v>
       </c>
       <c r="I17" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J17" t="n">
-        <v>247.1244892489109</v>
+        <v>414.5301382692641</v>
       </c>
       <c r="K17" t="n">
-        <v>844.8439030962312</v>
+        <v>771.2340873221501</v>
       </c>
       <c r="L17" t="n">
-        <v>1638.64431748209</v>
+        <v>1565.034501708009</v>
       </c>
       <c r="M17" t="n">
-        <v>2387.792758486311</v>
+        <v>2019.878558992698</v>
       </c>
       <c r="N17" t="n">
-        <v>2854.61047652152</v>
+        <v>2919.669732195772</v>
       </c>
       <c r="O17" t="n">
-        <v>3659.070128472832</v>
+        <v>3724.129384147084</v>
       </c>
       <c r="P17" t="n">
-        <v>4307.983446673908</v>
+        <v>4373.042702348161</v>
       </c>
       <c r="Q17" t="n">
-        <v>4718.068564222579</v>
+        <v>4783.127819896831</v>
       </c>
       <c r="R17" t="n">
         <v>4813.994990069626</v>
       </c>
       <c r="S17" t="n">
-        <v>4693.285200474677</v>
+        <v>4693.285200474678</v>
       </c>
       <c r="T17" t="n">
         <v>4485.305929975225</v>
@@ -5586,34 +5586,34 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H18" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I18" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J18" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304508</v>
       </c>
       <c r="K18" t="n">
-        <v>628.6710633926953</v>
+        <v>628.6710633926957</v>
       </c>
       <c r="L18" t="n">
-        <v>943.308394242523</v>
+        <v>943.3083942425237</v>
       </c>
       <c r="M18" t="n">
-        <v>1329.832187032395</v>
+        <v>1329.832187032396</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.994759395721</v>
+        <v>1740.994759395723</v>
       </c>
       <c r="O18" t="n">
-        <v>2094.908390780839</v>
+        <v>2094.90839078084</v>
       </c>
       <c r="P18" t="n">
-        <v>2359.622215301018</v>
+        <v>2359.622215301019</v>
       </c>
       <c r="Q18" t="n">
-        <v>2601.025413179288</v>
+        <v>2570.987282611808</v>
       </c>
       <c r="R18" t="n">
         <v>2601.025413179288</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>518.8262401923956</v>
+        <v>278.6739513210227</v>
       </c>
       <c r="C19" t="n">
-        <v>349.8900572644887</v>
+        <v>278.6739513210227</v>
       </c>
       <c r="D19" t="n">
-        <v>199.773417852153</v>
+        <v>128.557311908687</v>
       </c>
       <c r="E19" t="n">
-        <v>199.773417852153</v>
+        <v>128.557311908687</v>
       </c>
       <c r="F19" t="n">
-        <v>199.773417852153</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="G19" t="n">
-        <v>199.773417852153</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="H19" t="n">
-        <v>199.773417852153</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="I19" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J19" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8234703720052</v>
+        <v>307.8234703720054</v>
       </c>
       <c r="L19" t="n">
-        <v>594.4976645070651</v>
+        <v>594.4976645070656</v>
       </c>
       <c r="M19" t="n">
-        <v>907.1445306290194</v>
+        <v>907.14453062902</v>
       </c>
       <c r="N19" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496554</v>
       </c>
       <c r="O19" t="n">
-        <v>1488.708863521203</v>
+        <v>1488.708863521204</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470092</v>
       </c>
       <c r="Q19" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="R19" t="n">
-        <v>1658.729943416032</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="S19" t="n">
-        <v>1463.469769355894</v>
+        <v>1562.522155539903</v>
       </c>
       <c r="T19" t="n">
-        <v>1244.576363265483</v>
+        <v>1339.87921447204</v>
       </c>
       <c r="U19" t="n">
-        <v>1244.576363265483</v>
+        <v>1050.765160461887</v>
       </c>
       <c r="V19" t="n">
-        <v>989.891875059596</v>
+        <v>796.0806722560006</v>
       </c>
       <c r="W19" t="n">
-        <v>700.4747050226354</v>
+        <v>506.66350221904</v>
       </c>
       <c r="X19" t="n">
-        <v>700.4747050226354</v>
+        <v>278.6739513210227</v>
       </c>
       <c r="Y19" t="n">
-        <v>700.4747050226354</v>
+        <v>278.6739513210227</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2397.702401960704</v>
+        <v>2397.702401960703</v>
       </c>
       <c r="C20" t="n">
-        <v>2028.739885020293</v>
+        <v>2028.739885020292</v>
       </c>
       <c r="D20" t="n">
         <v>1670.474186413542</v>
@@ -5738,37 +5738,37 @@
         <v>1284.685933815298</v>
       </c>
       <c r="F20" t="n">
-        <v>873.7000290256904</v>
+        <v>873.7000290256901</v>
       </c>
       <c r="G20" t="n">
-        <v>458.1703491999444</v>
+        <v>458.1703491999442</v>
       </c>
       <c r="H20" t="n">
-        <v>155.9041454432209</v>
+        <v>155.9041454432206</v>
       </c>
       <c r="I20" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J20" t="n">
-        <v>247.1244892489109</v>
+        <v>247.1244892489111</v>
       </c>
       <c r="K20" t="n">
-        <v>844.8439030962312</v>
+        <v>844.8439030962318</v>
       </c>
       <c r="L20" t="n">
-        <v>1638.64431748209</v>
+        <v>1638.644317482091</v>
       </c>
       <c r="M20" t="n">
-        <v>2538.506772924682</v>
+        <v>2396.870738442816</v>
       </c>
       <c r="N20" t="n">
-        <v>3438.297946127755</v>
+        <v>3296.66191164589</v>
       </c>
       <c r="O20" t="n">
-        <v>4242.757598079067</v>
+        <v>3724.129384147084</v>
       </c>
       <c r="P20" t="n">
-        <v>4583.234543101466</v>
+        <v>4373.042702348161</v>
       </c>
       <c r="Q20" t="n">
         <v>4783.127819896831</v>
@@ -5780,22 +5780,22 @@
         <v>4693.285200474678</v>
       </c>
       <c r="T20" t="n">
-        <v>4485.305929975226</v>
+        <v>4485.305929975225</v>
       </c>
       <c r="U20" t="n">
-        <v>4231.738874875403</v>
+        <v>4231.738874875402</v>
       </c>
       <c r="V20" t="n">
-        <v>3900.675987531832</v>
+        <v>3900.675987531831</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.907332261718</v>
+        <v>3547.907332261717</v>
       </c>
       <c r="X20" t="n">
-        <v>3174.441574000638</v>
+        <v>3174.441574000637</v>
       </c>
       <c r="Y20" t="n">
-        <v>2784.302242024826</v>
+        <v>2784.302242024825</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H21" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I21" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J21" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304508</v>
       </c>
       <c r="K21" t="n">
-        <v>628.6710633926953</v>
+        <v>628.6710633926957</v>
       </c>
       <c r="L21" t="n">
-        <v>943.308394242523</v>
+        <v>943.3083942425237</v>
       </c>
       <c r="M21" t="n">
-        <v>1329.832187032395</v>
+        <v>1329.832187032396</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.994759395721</v>
+        <v>1740.994759395723</v>
       </c>
       <c r="O21" t="n">
-        <v>2094.908390780839</v>
+        <v>2094.90839078084</v>
       </c>
       <c r="P21" t="n">
-        <v>2359.622215301018</v>
+        <v>2359.622215301019</v>
       </c>
       <c r="Q21" t="n">
         <v>2601.025413179288</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>710.1357632219386</v>
+        <v>560.0191238096029</v>
       </c>
       <c r="C22" t="n">
-        <v>541.1995802940319</v>
+        <v>391.082940881696</v>
       </c>
       <c r="D22" t="n">
         <v>391.082940881696</v>
@@ -5908,52 +5908,52 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J22" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8234703720053</v>
+        <v>307.8234703720055</v>
       </c>
       <c r="L22" t="n">
-        <v>594.4976645070652</v>
+        <v>594.4976645070655</v>
       </c>
       <c r="M22" t="n">
-        <v>907.1445306290198</v>
+        <v>907.1445306290201</v>
       </c>
       <c r="N22" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496554</v>
       </c>
       <c r="O22" t="n">
         <v>1488.708863521204</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470092</v>
       </c>
       <c r="Q22" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="R22" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="S22" t="n">
-        <v>1757.782329600039</v>
+        <v>1562.522155539902</v>
       </c>
       <c r="T22" t="n">
-        <v>1757.782329600039</v>
+        <v>1339.87921447204</v>
       </c>
       <c r="U22" t="n">
-        <v>1468.668275589886</v>
+        <v>1050.765160461887</v>
       </c>
       <c r="V22" t="n">
-        <v>1409.190948987156</v>
+        <v>1050.765160461887</v>
       </c>
       <c r="W22" t="n">
-        <v>1119.773778950196</v>
+        <v>788.0086747076202</v>
       </c>
       <c r="X22" t="n">
-        <v>891.7842280521784</v>
+        <v>560.0191238096029</v>
       </c>
       <c r="Y22" t="n">
-        <v>891.7842280521784</v>
+        <v>560.0191238096029</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1284.685933815298</v>
       </c>
       <c r="F23" t="n">
-        <v>873.7000290256901</v>
+        <v>873.70002902569</v>
       </c>
       <c r="G23" t="n">
-        <v>458.1703491999442</v>
+        <v>458.1703491999441</v>
       </c>
       <c r="H23" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432206</v>
       </c>
       <c r="I23" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J23" t="n">
-        <v>247.1244892489109</v>
+        <v>414.5301382692641</v>
       </c>
       <c r="K23" t="n">
-        <v>844.8439030962312</v>
+        <v>1012.249552116585</v>
       </c>
       <c r="L23" t="n">
-        <v>1638.64431748209</v>
+        <v>1392.565364097498</v>
       </c>
       <c r="M23" t="n">
-        <v>2538.506772924682</v>
+        <v>2292.427819540091</v>
       </c>
       <c r="N23" t="n">
-        <v>3438.297946127755</v>
+        <v>3192.218992743165</v>
       </c>
       <c r="O23" t="n">
-        <v>4242.757598079067</v>
+        <v>3996.678644694477</v>
       </c>
       <c r="P23" t="n">
         <v>4583.234543101466</v>
@@ -6060,31 +6060,31 @@
         <v>206.3466533558042</v>
       </c>
       <c r="H24" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212662</v>
       </c>
       <c r="I24" t="n">
         <v>96.27989980139252</v>
       </c>
       <c r="J24" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304508</v>
       </c>
       <c r="K24" t="n">
-        <v>628.6710633926953</v>
+        <v>535.0627614491673</v>
       </c>
       <c r="L24" t="n">
-        <v>943.308394242523</v>
+        <v>849.7000922989952</v>
       </c>
       <c r="M24" t="n">
-        <v>1329.832187032395</v>
+        <v>1236.223885088868</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.994759395721</v>
+        <v>1647.386457452194</v>
       </c>
       <c r="O24" t="n">
-        <v>2094.908390780839</v>
+        <v>2001.300088837312</v>
       </c>
       <c r="P24" t="n">
-        <v>2359.622215301018</v>
+        <v>2266.013913357491</v>
       </c>
       <c r="Q24" t="n">
         <v>2601.025413179288</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.1878339162751</v>
+        <v>278.6739513210229</v>
       </c>
       <c r="C25" t="n">
-        <v>264.1878339162751</v>
+        <v>278.6739513210229</v>
       </c>
       <c r="D25" t="n">
-        <v>264.1878339162751</v>
+        <v>278.6739513210229</v>
       </c>
       <c r="E25" t="n">
-        <v>264.1878339162751</v>
+        <v>278.6739513210229</v>
       </c>
       <c r="F25" t="n">
-        <v>264.1878339162751</v>
+        <v>131.7840038231125</v>
       </c>
       <c r="G25" t="n">
         <v>96.27989980139252</v>
@@ -6145,52 +6145,52 @@
         <v>96.27989980139252</v>
       </c>
       <c r="J25" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445497</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8234703720053</v>
+        <v>307.8234703720054</v>
       </c>
       <c r="L25" t="n">
-        <v>594.4976645070653</v>
+        <v>594.4976645070656</v>
       </c>
       <c r="M25" t="n">
-        <v>907.1445306290196</v>
+        <v>907.1445306290202</v>
       </c>
       <c r="N25" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496554</v>
       </c>
       <c r="O25" t="n">
-        <v>1488.708863521203</v>
+        <v>1488.708863521204</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470092</v>
       </c>
       <c r="Q25" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="R25" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="S25" t="n">
-        <v>1562.522155539901</v>
+        <v>1562.522155539903</v>
       </c>
       <c r="T25" t="n">
-        <v>1339.879214472039</v>
+        <v>1339.879214472041</v>
       </c>
       <c r="U25" t="n">
-        <v>1050.765160461886</v>
+        <v>1050.765160461888</v>
       </c>
       <c r="V25" t="n">
-        <v>1050.765160461886</v>
+        <v>796.0806722560009</v>
       </c>
       <c r="W25" t="n">
-        <v>894.6184287880623</v>
+        <v>506.6635022190403</v>
       </c>
       <c r="X25" t="n">
-        <v>666.6288778900449</v>
+        <v>278.6739513210229</v>
       </c>
       <c r="Y25" t="n">
-        <v>445.8362987465148</v>
+        <v>278.6739513210229</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,25 +6224,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1586.925993846824</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M26" t="n">
-        <v>2120.457898518748</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.236715577531</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6251,19 +6251,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6306,49 +6306,49 @@
         <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.3103861854966</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="C28" t="n">
-        <v>558.3742032575897</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="D28" t="n">
-        <v>408.2575638452539</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="E28" t="n">
-        <v>408.2575638452539</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F28" t="n">
-        <v>408.2575638452539</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G28" t="n">
-        <v>240.5547272199729</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6388,46 +6388,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1198.376021052697</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>908.9588510157363</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X28" t="n">
-        <v>908.9588510157363</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.9588510157363</v>
+        <v>481.6968904858346</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6473,16 +6473,16 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>500.6091747370272</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="C31" t="n">
-        <v>500.6091747370272</v>
+        <v>222.9302503154555</v>
       </c>
       <c r="D31" t="n">
-        <v>500.6091747370272</v>
+        <v>222.9302503154555</v>
       </c>
       <c r="E31" t="n">
-        <v>500.609174737027</v>
+        <v>222.9302503154555</v>
       </c>
       <c r="F31" t="n">
-        <v>500.609174737027</v>
+        <v>222.9302503154555</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6649,22 +6649,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1385.724257814701</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1131.039769608814</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W31" t="n">
-        <v>1131.039769608814</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="X31" t="n">
-        <v>903.050218710797</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y31" t="n">
-        <v>682.2576395672669</v>
+        <v>391.8664332433624</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6677,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>451.8458144277729</v>
@@ -6704,25 +6704,25 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,64 +6753,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>708.7441371531722</v>
+        <v>481.6968904858344</v>
       </c>
       <c r="C34" t="n">
-        <v>539.8079542252653</v>
+        <v>481.6968904858344</v>
       </c>
       <c r="D34" t="n">
-        <v>389.6913148129296</v>
+        <v>481.6968904858344</v>
       </c>
       <c r="E34" t="n">
-        <v>241.7782212305365</v>
+        <v>333.7837969034413</v>
       </c>
       <c r="F34" t="n">
-        <v>241.7782212305365</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305365</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6871,7 +6871,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6883,25 +6883,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1876.739151637659</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1654.972536207185</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1365.869669332829</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1111.185181126942</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="W34" t="n">
-        <v>1111.185181126942</v>
+        <v>709.6864413838517</v>
       </c>
       <c r="X34" t="n">
-        <v>1111.185181126942</v>
+        <v>481.6968904858344</v>
       </c>
       <c r="Y34" t="n">
-        <v>890.392601983412</v>
+        <v>481.6968904858344</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6944,10 +6944,10 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6962,19 +6962,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089887</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142067</v>
@@ -7044,19 +7044,19 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y36" t="n">
         <v>1138.808109517387</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7096,31 +7096,31 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499227</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N37" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O37" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P37" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R37" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T37" t="n">
         <v>1967.452490122057</v>
@@ -7129,16 +7129,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V37" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849074</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036717</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7175,22 +7175,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1521.86673817257</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M38" t="n">
-        <v>2055.398642844495</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903277</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7242,10 +7242,10 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7309,34 +7309,34 @@
         <v>788.5151678215057</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,7 +7351,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,19 +7409,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2047.844055175503</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7442,19 +7442,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7479,7 +7479,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215055</v>
       </c>
       <c r="C43" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430899</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932529</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160452</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,13 +7646,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1453.840519464784</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M44" t="n">
         <v>2432.390822294613</v>
@@ -7679,19 +7679,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,40 +7725,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
@@ -7828,13 +7828,13 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
         <v>1725.799256195774</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928319</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>69.24828916306888</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8696,19 +8696,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>193.8969599731641</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>115.5234473888523</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>85.18190136109268</v>
       </c>
       <c r="R12" t="n">
-        <v>15.18012378356337</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.57919359791757</v>
+        <v>12.59352047148803</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>169.9113966655802</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>9.148339097971984</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>15.18012378356337</v>
+        <v>15.18012378356332</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>80.69544813234194</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>297.2771552722558</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>115.5234473888523</v>
+        <v>85.18190136109268</v>
       </c>
       <c r="R18" t="n">
-        <v>15.18012378356337</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,19 +9407,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>306.4468319959963</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>10.24681607180878</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>115.5234473888523</v>
+        <v>115.5234473888503</v>
       </c>
       <c r="R21" t="n">
-        <v>15.18012378356337</v>
+        <v>15.18012378356332</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9653,7 +9653,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>10.24681607180878</v>
+        <v>258.8114154501827</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>169.9113966655802</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>115.5234473888523</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>15.18012378356337</v>
+        <v>15.18012378356332</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>353.7642348290861</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10121,10 +10121,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10592,13 +10592,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>344.7025836476839</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10823,10 +10823,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>176.2173930448433</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>7.630896635345266</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>219.3344627260167</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6.074776072914062</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>166.2288547737337</v>
       </c>
       <c r="H13" t="n">
-        <v>146.5602830177929</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>102.4585828702529</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.06186232216687</v>
+        <v>98.06186232216683</v>
       </c>
       <c r="S13" t="n">
-        <v>193.307572319536</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T13" t="n">
-        <v>87.40565881580446</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>147.877342195718</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.2288547737337</v>
       </c>
       <c r="H16" t="n">
-        <v>73.20916012168891</v>
+        <v>146.5602830177929</v>
       </c>
       <c r="I16" t="n">
-        <v>102.4585828702529</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.06186232216687</v>
+        <v>98.06186232216683</v>
       </c>
       <c r="S16" t="n">
-        <v>193.307572319536</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2229134700513</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>113.4664100367097</v>
       </c>
       <c r="G19" t="n">
         <v>166.2288547737337</v>
@@ -23908,7 +23908,7 @@
         <v>146.5602830177929</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.06186232216683</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.712039627676091</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2229134700513</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>146.5602830177929</v>
       </c>
       <c r="I22" t="n">
-        <v>102.4585828702529</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.06186232216687</v>
+        <v>98.06186232216683</v>
       </c>
       <c r="S22" t="n">
-        <v>193.307572319536</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.4165116571834</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>193.2550899871257</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>26.39407743986641</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>131.0797917922308</v>
       </c>
       <c r="H25" t="n">
         <v>146.5602830177929</v>
       </c>
       <c r="I25" t="n">
-        <v>102.4585828702529</v>
+        <v>102.4585828702528</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.06186232216687</v>
+        <v>98.06186232216683</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>131.9377339795051</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>5.932933602272556</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>1.211259070458084</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>6.135584697440765</v>
+        <v>39.93028455063781</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>5.932933602272982</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>110.9607540090683</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-9.541256801314353e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1129766.267311742</v>
+        <v>1129766.267311743</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1129766.267311742</v>
+        <v>1129766.267311743</v>
       </c>
     </row>
     <row r="10">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524995</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524994</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
         <v>276118.0828059801</v>
@@ -26326,16 +26326,16 @@
         <v>276118.0828059801</v>
       </c>
       <c r="G2" t="n">
-        <v>276118.08280598</v>
+        <v>276118.0828059801</v>
       </c>
       <c r="H2" t="n">
         <v>276118.0828059801</v>
       </c>
       <c r="I2" t="n">
-        <v>276118.08280598</v>
+        <v>276118.0828059802</v>
       </c>
       <c r="J2" t="n">
-        <v>277957.2508208883</v>
+        <v>277957.2508208882</v>
       </c>
       <c r="K2" t="n">
         <v>277957.2508208881</v>
@@ -26350,10 +26350,10 @@
         <v>287364.6194524994</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524995</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>639598.3910328817</v>
+        <v>639598.3910328823</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>257371.5071467812</v>
+        <v>257371.5071467808</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>169461.7256516756</v>
+        <v>169461.7256516755</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>26084.25031398454</v>
+        <v>26084.25031398453</v>
       </c>
       <c r="F4" t="n">
-        <v>26084.25031398457</v>
+        <v>26084.25031398449</v>
       </c>
       <c r="G4" t="n">
-        <v>26084.25031398457</v>
+        <v>26084.25031398448</v>
       </c>
       <c r="H4" t="n">
-        <v>26084.25031398456</v>
+        <v>26084.25031398452</v>
       </c>
       <c r="I4" t="n">
-        <v>26084.25031398456</v>
+        <v>26084.25031398453</v>
       </c>
       <c r="J4" t="n">
+        <v>18148.49231918989</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="K4" t="n">
-        <v>18148.49231918991</v>
-      </c>
       <c r="L4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740894</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740901</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.20814694399</v>
       </c>
       <c r="F5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.20814694399</v>
       </c>
       <c r="G5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.20814694399</v>
       </c>
       <c r="H5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.20814694399</v>
       </c>
       <c r="I5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.20814694399</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26497,7 +26497,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-568811.0246825825</v>
+        <v>-568811.0246825824</v>
       </c>
       <c r="C6" t="n">
-        <v>21156.85453196199</v>
+        <v>21156.85453196202</v>
       </c>
       <c r="D6" t="n">
-        <v>21156.85453196208</v>
+        <v>21156.85453196192</v>
       </c>
       <c r="E6" t="n">
-        <v>-484039.7666878301</v>
+        <v>-484120.0990924487</v>
       </c>
       <c r="F6" t="n">
-        <v>155558.6243450516</v>
+        <v>155478.2919404336</v>
       </c>
       <c r="G6" t="n">
-        <v>155558.6243450514</v>
+        <v>155478.2919404336</v>
       </c>
       <c r="H6" t="n">
-        <v>155558.6243450515</v>
+        <v>155478.2919404336</v>
       </c>
       <c r="I6" t="n">
-        <v>155558.6243450514</v>
+        <v>155478.2919404337</v>
       </c>
       <c r="J6" t="n">
-        <v>-93946.26689879652</v>
+        <v>-94013.46238902192</v>
       </c>
       <c r="K6" t="n">
-        <v>163425.2402479845</v>
+        <v>163358.0447577587</v>
       </c>
       <c r="L6" t="n">
-        <v>163425.2402479846</v>
+        <v>163358.0447577587</v>
       </c>
       <c r="M6" t="n">
-        <v>-16035.43051068726</v>
+        <v>-16035.43051068716</v>
       </c>
       <c r="N6" t="n">
+        <v>153426.2951409884</v>
+      </c>
+      <c r="O6" t="n">
+        <v>153426.2951409884</v>
+      </c>
+      <c r="P6" t="n">
         <v>153426.2951409883</v>
-      </c>
-      <c r="O6" t="n">
-        <v>153426.2951409882</v>
-      </c>
-      <c r="P6" t="n">
-        <v>153426.2951409882</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26738,25 +26738,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>977.1781788020949</v>
+        <v>977.1781788020954</v>
       </c>
       <c r="F3" t="n">
-        <v>977.1781788020949</v>
+        <v>977.1781788020954</v>
       </c>
       <c r="G3" t="n">
-        <v>977.1781788020949</v>
+        <v>977.1781788020954</v>
       </c>
       <c r="H3" t="n">
-        <v>977.1781788020949</v>
+        <v>977.1781788020954</v>
       </c>
       <c r="I3" t="n">
-        <v>977.1781788020949</v>
+        <v>977.1781788020954</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>599.4345145850081</v>
+        <v>599.4345145850087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>112.5985217912034</v>
+        <v>112.5985217912029</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2114747628509</v>
+        <v>529.2114747628507</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>324.4813743340609</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>286.5112922340379</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>102.1031945837918</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>130.7130205644155</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>203.1729740101551</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>365.4995399716075</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>42.54290593675759</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0262563039806</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>253.0906634155132</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>83.37411316125588</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>64.79080741034568</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.575699570821598e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-2.418716181324786e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-2.344791028008331e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646612</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23126039661085</v>
+        <v>40.23126039661087</v>
       </c>
       <c r="I11" t="n">
         <v>151.4478863849961</v>
       </c>
       <c r="J11" t="n">
-        <v>333.4141766958967</v>
+        <v>333.4141766958969</v>
       </c>
       <c r="K11" t="n">
-        <v>499.7014221579778</v>
+        <v>499.7014221579781</v>
       </c>
       <c r="L11" t="n">
-        <v>619.9238008092929</v>
+        <v>619.9238008092932</v>
       </c>
       <c r="M11" t="n">
-        <v>689.7846749289782</v>
+        <v>689.7846749289786</v>
       </c>
       <c r="N11" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170046</v>
       </c>
       <c r="O11" t="n">
-        <v>661.8835371804682</v>
+        <v>661.8835371804686</v>
       </c>
       <c r="P11" t="n">
-        <v>564.9022857666924</v>
+        <v>564.9022857666928</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2180906778481</v>
+        <v>424.2180906778484</v>
       </c>
       <c r="R11" t="n">
-        <v>246.7644975846316</v>
+        <v>246.7644975846317</v>
       </c>
       <c r="S11" t="n">
-        <v>89.51737788724721</v>
+        <v>89.51737788724725</v>
       </c>
       <c r="T11" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967305</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630922</v>
       </c>
       <c r="H12" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530391</v>
       </c>
       <c r="I12" t="n">
-        <v>72.36649720374005</v>
+        <v>72.3664972037401</v>
       </c>
       <c r="J12" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243013</v>
       </c>
       <c r="K12" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165731</v>
       </c>
       <c r="L12" t="n">
-        <v>456.3698654867709</v>
+        <v>456.3698654867711</v>
       </c>
       <c r="M12" t="n">
-        <v>532.5621074471417</v>
+        <v>532.5621074471419</v>
       </c>
       <c r="N12" t="n">
-        <v>546.6574417432587</v>
+        <v>546.657441743259</v>
       </c>
       <c r="O12" t="n">
-        <v>500.0847609950683</v>
+        <v>500.0847609950686</v>
       </c>
       <c r="P12" t="n">
-        <v>401.3621089498643</v>
+        <v>401.3621089498645</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156244</v>
       </c>
       <c r="R12" t="n">
         <v>130.4993801804006</v>
       </c>
       <c r="S12" t="n">
-        <v>39.04103384176292</v>
+        <v>39.04103384176294</v>
       </c>
       <c r="T12" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972881</v>
       </c>
       <c r="U12" t="n">
         <v>0.1382799309625607</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.762124584725089</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H13" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99189205700542</v>
+        <v>52.99189205700545</v>
       </c>
       <c r="J13" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K13" t="n">
-        <v>204.7268381162421</v>
+        <v>204.7268381162422</v>
       </c>
       <c r="L13" t="n">
-        <v>261.979867805401</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M13" t="n">
-        <v>276.221038312861</v>
+        <v>276.2210383128611</v>
       </c>
       <c r="N13" t="n">
-        <v>269.6531194061586</v>
+        <v>269.6531194061587</v>
       </c>
       <c r="O13" t="n">
-        <v>249.0683003936881</v>
+        <v>249.0683003936882</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652962</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R13" t="n">
-        <v>79.23152905500261</v>
+        <v>79.23152905500265</v>
       </c>
       <c r="S13" t="n">
-        <v>30.70902571743631</v>
+        <v>30.70902571743633</v>
       </c>
       <c r="T13" t="n">
-        <v>7.529077771098105</v>
+        <v>7.52907777109811</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09611588643955042</v>
+        <v>0.09611588643955048</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646612</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23126039661085</v>
+        <v>40.23126039661087</v>
       </c>
       <c r="I14" t="n">
         <v>151.4478863849961</v>
       </c>
       <c r="J14" t="n">
-        <v>333.4141766958967</v>
+        <v>333.4141766958969</v>
       </c>
       <c r="K14" t="n">
-        <v>499.7014221579778</v>
+        <v>499.7014221579781</v>
       </c>
       <c r="L14" t="n">
-        <v>619.9238008092929</v>
+        <v>619.9238008092932</v>
       </c>
       <c r="M14" t="n">
-        <v>689.7846749289782</v>
+        <v>689.7846749289786</v>
       </c>
       <c r="N14" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170046</v>
       </c>
       <c r="O14" t="n">
-        <v>661.8835371804682</v>
+        <v>661.8835371804686</v>
       </c>
       <c r="P14" t="n">
-        <v>564.9022857666924</v>
+        <v>564.9022857666928</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2180906778481</v>
+        <v>424.2180906778484</v>
       </c>
       <c r="R14" t="n">
-        <v>246.7644975846316</v>
+        <v>246.7644975846317</v>
       </c>
       <c r="S14" t="n">
-        <v>89.51737788724721</v>
+        <v>89.51737788724725</v>
       </c>
       <c r="T14" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967305</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630922</v>
       </c>
       <c r="H15" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530391</v>
       </c>
       <c r="I15" t="n">
-        <v>72.36649720374005</v>
+        <v>72.3664972037401</v>
       </c>
       <c r="J15" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243013</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165731</v>
       </c>
       <c r="L15" t="n">
-        <v>456.3698654867709</v>
+        <v>456.3698654867711</v>
       </c>
       <c r="M15" t="n">
-        <v>532.5621074471417</v>
+        <v>532.5621074471419</v>
       </c>
       <c r="N15" t="n">
-        <v>546.6574417432587</v>
+        <v>546.657441743259</v>
       </c>
       <c r="O15" t="n">
-        <v>500.0847609950683</v>
+        <v>500.0847609950686</v>
       </c>
       <c r="P15" t="n">
-        <v>401.3621089498643</v>
+        <v>401.3621089498645</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156244</v>
       </c>
       <c r="R15" t="n">
         <v>130.4993801804006</v>
       </c>
       <c r="S15" t="n">
-        <v>39.04103384176292</v>
+        <v>39.04103384176294</v>
       </c>
       <c r="T15" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972881</v>
       </c>
       <c r="U15" t="n">
         <v>0.1382799309625607</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.762124584725089</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H16" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99189205700542</v>
+        <v>52.99189205700545</v>
       </c>
       <c r="J16" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K16" t="n">
-        <v>204.7268381162421</v>
+        <v>204.7268381162422</v>
       </c>
       <c r="L16" t="n">
-        <v>261.979867805401</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M16" t="n">
-        <v>276.221038312861</v>
+        <v>276.2210383128611</v>
       </c>
       <c r="N16" t="n">
-        <v>269.6531194061586</v>
+        <v>269.6531194061587</v>
       </c>
       <c r="O16" t="n">
-        <v>249.0683003936881</v>
+        <v>249.0683003936882</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652962</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R16" t="n">
-        <v>79.23152905500261</v>
+        <v>79.23152905500265</v>
       </c>
       <c r="S16" t="n">
-        <v>30.70902571743631</v>
+        <v>30.70902571743633</v>
       </c>
       <c r="T16" t="n">
-        <v>7.529077771098105</v>
+        <v>7.52907777109811</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09611588643955042</v>
+        <v>0.09611588643955048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646612</v>
       </c>
       <c r="H17" t="n">
-        <v>40.23126039661085</v>
+        <v>40.23126039661087</v>
       </c>
       <c r="I17" t="n">
         <v>151.4478863849961</v>
       </c>
       <c r="J17" t="n">
-        <v>333.4141766958967</v>
+        <v>333.4141766958969</v>
       </c>
       <c r="K17" t="n">
-        <v>499.7014221579778</v>
+        <v>499.7014221579781</v>
       </c>
       <c r="L17" t="n">
-        <v>619.9238008092929</v>
+        <v>619.9238008092932</v>
       </c>
       <c r="M17" t="n">
-        <v>689.7846749289782</v>
+        <v>689.7846749289786</v>
       </c>
       <c r="N17" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170046</v>
       </c>
       <c r="O17" t="n">
-        <v>661.8835371804682</v>
+        <v>661.8835371804686</v>
       </c>
       <c r="P17" t="n">
-        <v>564.9022857666924</v>
+        <v>564.9022857666928</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2180906778481</v>
+        <v>424.2180906778484</v>
       </c>
       <c r="R17" t="n">
-        <v>246.7644975846316</v>
+        <v>246.7644975846317</v>
       </c>
       <c r="S17" t="n">
-        <v>89.51737788724721</v>
+        <v>89.51737788724725</v>
       </c>
       <c r="T17" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967305</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630922</v>
       </c>
       <c r="H18" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530391</v>
       </c>
       <c r="I18" t="n">
-        <v>72.36649720374005</v>
+        <v>72.3664972037401</v>
       </c>
       <c r="J18" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243013</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165731</v>
       </c>
       <c r="L18" t="n">
-        <v>456.3698654867709</v>
+        <v>456.3698654867711</v>
       </c>
       <c r="M18" t="n">
-        <v>532.5621074471417</v>
+        <v>532.5621074471419</v>
       </c>
       <c r="N18" t="n">
-        <v>546.6574417432587</v>
+        <v>546.657441743259</v>
       </c>
       <c r="O18" t="n">
-        <v>500.0847609950683</v>
+        <v>500.0847609950686</v>
       </c>
       <c r="P18" t="n">
-        <v>401.3621089498643</v>
+        <v>401.3621089498645</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156244</v>
       </c>
       <c r="R18" t="n">
         <v>130.4993801804006</v>
       </c>
       <c r="S18" t="n">
-        <v>39.04103384176292</v>
+        <v>39.04103384176294</v>
       </c>
       <c r="T18" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972881</v>
       </c>
       <c r="U18" t="n">
         <v>0.1382799309625607</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.762124584725089</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H19" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I19" t="n">
-        <v>52.99189205700542</v>
+        <v>52.99189205700545</v>
       </c>
       <c r="J19" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K19" t="n">
-        <v>204.7268381162421</v>
+        <v>204.7268381162422</v>
       </c>
       <c r="L19" t="n">
-        <v>261.979867805401</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M19" t="n">
-        <v>276.221038312861</v>
+        <v>276.2210383128611</v>
       </c>
       <c r="N19" t="n">
-        <v>269.6531194061586</v>
+        <v>269.6531194061587</v>
       </c>
       <c r="O19" t="n">
-        <v>249.0683003936881</v>
+        <v>249.0683003936882</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652962</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R19" t="n">
-        <v>79.23152905500261</v>
+        <v>79.23152905500265</v>
       </c>
       <c r="S19" t="n">
-        <v>30.70902571743631</v>
+        <v>30.70902571743633</v>
       </c>
       <c r="T19" t="n">
-        <v>7.529077771098105</v>
+        <v>7.52907777109811</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09611588643955042</v>
+        <v>0.09611588643955048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646612</v>
       </c>
       <c r="H20" t="n">
-        <v>40.23126039661085</v>
+        <v>40.23126039661087</v>
       </c>
       <c r="I20" t="n">
         <v>151.4478863849961</v>
       </c>
       <c r="J20" t="n">
-        <v>333.4141766958967</v>
+        <v>333.4141766958969</v>
       </c>
       <c r="K20" t="n">
-        <v>499.7014221579778</v>
+        <v>499.7014221579781</v>
       </c>
       <c r="L20" t="n">
-        <v>619.9238008092929</v>
+        <v>619.9238008092932</v>
       </c>
       <c r="M20" t="n">
-        <v>689.7846749289782</v>
+        <v>689.7846749289786</v>
       </c>
       <c r="N20" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170046</v>
       </c>
       <c r="O20" t="n">
-        <v>661.8835371804682</v>
+        <v>661.8835371804686</v>
       </c>
       <c r="P20" t="n">
-        <v>564.9022857666924</v>
+        <v>564.9022857666928</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2180906778481</v>
+        <v>424.2180906778484</v>
       </c>
       <c r="R20" t="n">
-        <v>246.7644975846316</v>
+        <v>246.7644975846317</v>
       </c>
       <c r="S20" t="n">
-        <v>89.51737788724721</v>
+        <v>89.51737788724725</v>
       </c>
       <c r="T20" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967305</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630922</v>
       </c>
       <c r="H21" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530391</v>
       </c>
       <c r="I21" t="n">
-        <v>72.36649720374005</v>
+        <v>72.3664972037401</v>
       </c>
       <c r="J21" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243013</v>
       </c>
       <c r="K21" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165731</v>
       </c>
       <c r="L21" t="n">
-        <v>456.3698654867709</v>
+        <v>456.3698654867711</v>
       </c>
       <c r="M21" t="n">
-        <v>532.5621074471417</v>
+        <v>532.5621074471419</v>
       </c>
       <c r="N21" t="n">
-        <v>546.6574417432587</v>
+        <v>546.657441743259</v>
       </c>
       <c r="O21" t="n">
-        <v>500.0847609950683</v>
+        <v>500.0847609950686</v>
       </c>
       <c r="P21" t="n">
-        <v>401.3621089498643</v>
+        <v>401.3621089498645</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156244</v>
       </c>
       <c r="R21" t="n">
         <v>130.4993801804006</v>
       </c>
       <c r="S21" t="n">
-        <v>39.04103384176292</v>
+        <v>39.04103384176294</v>
       </c>
       <c r="T21" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972881</v>
       </c>
       <c r="U21" t="n">
         <v>0.1382799309625607</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.762124584725089</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H22" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I22" t="n">
-        <v>52.99189205700542</v>
+        <v>52.99189205700545</v>
       </c>
       <c r="J22" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K22" t="n">
-        <v>204.7268381162421</v>
+        <v>204.7268381162422</v>
       </c>
       <c r="L22" t="n">
-        <v>261.979867805401</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M22" t="n">
-        <v>276.221038312861</v>
+        <v>276.2210383128611</v>
       </c>
       <c r="N22" t="n">
-        <v>269.6531194061586</v>
+        <v>269.6531194061587</v>
       </c>
       <c r="O22" t="n">
-        <v>249.0683003936881</v>
+        <v>249.0683003936882</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652962</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R22" t="n">
-        <v>79.23152905500261</v>
+        <v>79.23152905500265</v>
       </c>
       <c r="S22" t="n">
-        <v>30.70902571743631</v>
+        <v>30.70902571743633</v>
       </c>
       <c r="T22" t="n">
-        <v>7.529077771098105</v>
+        <v>7.52907777109811</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09611588643955042</v>
+        <v>0.09611588643955048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646612</v>
       </c>
       <c r="H23" t="n">
-        <v>40.23126039661085</v>
+        <v>40.23126039661087</v>
       </c>
       <c r="I23" t="n">
         <v>151.4478863849961</v>
       </c>
       <c r="J23" t="n">
-        <v>333.4141766958967</v>
+        <v>333.4141766958969</v>
       </c>
       <c r="K23" t="n">
-        <v>499.7014221579778</v>
+        <v>499.7014221579781</v>
       </c>
       <c r="L23" t="n">
-        <v>619.9238008092929</v>
+        <v>619.9238008092932</v>
       </c>
       <c r="M23" t="n">
-        <v>689.7846749289782</v>
+        <v>689.7846749289786</v>
       </c>
       <c r="N23" t="n">
-        <v>700.9461121170042</v>
+        <v>700.9461121170046</v>
       </c>
       <c r="O23" t="n">
-        <v>661.8835371804682</v>
+        <v>661.8835371804686</v>
       </c>
       <c r="P23" t="n">
-        <v>564.9022857666924</v>
+        <v>564.9022857666928</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.2180906778481</v>
+        <v>424.2180906778484</v>
       </c>
       <c r="R23" t="n">
-        <v>246.7644975846316</v>
+        <v>246.7644975846317</v>
       </c>
       <c r="S23" t="n">
-        <v>89.51737788724721</v>
+        <v>89.51737788724725</v>
       </c>
       <c r="T23" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967305</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3142683590117287</v>
+        <v>0.3142683590117289</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630922</v>
       </c>
       <c r="H24" t="n">
-        <v>20.2994938653039</v>
+        <v>20.29949386530391</v>
       </c>
       <c r="I24" t="n">
-        <v>72.36649720374005</v>
+        <v>72.3664972037401</v>
       </c>
       <c r="J24" t="n">
-        <v>198.5791995243012</v>
+        <v>198.5791995243013</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165731</v>
       </c>
       <c r="L24" t="n">
-        <v>456.3698654867709</v>
+        <v>456.3698654867711</v>
       </c>
       <c r="M24" t="n">
-        <v>532.5621074471417</v>
+        <v>532.5621074471419</v>
       </c>
       <c r="N24" t="n">
-        <v>546.6574417432587</v>
+        <v>546.657441743259</v>
       </c>
       <c r="O24" t="n">
-        <v>500.0847609950683</v>
+        <v>500.0847609950686</v>
       </c>
       <c r="P24" t="n">
-        <v>401.3621089498643</v>
+        <v>401.3621089498645</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.2999407156242</v>
+        <v>268.2999407156244</v>
       </c>
       <c r="R24" t="n">
         <v>130.4993801804006</v>
       </c>
       <c r="S24" t="n">
-        <v>39.04103384176292</v>
+        <v>39.04103384176294</v>
       </c>
       <c r="T24" t="n">
-        <v>8.471950436972875</v>
+        <v>8.471950436972881</v>
       </c>
       <c r="U24" t="n">
         <v>0.1382799309625607</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.762124584725089</v>
+        <v>1.76212458472509</v>
       </c>
       <c r="H25" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964672</v>
       </c>
       <c r="I25" t="n">
-        <v>52.99189205700542</v>
+        <v>52.99189205700545</v>
       </c>
       <c r="J25" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400639</v>
       </c>
       <c r="K25" t="n">
-        <v>204.7268381162421</v>
+        <v>204.7268381162422</v>
       </c>
       <c r="L25" t="n">
-        <v>261.979867805401</v>
+        <v>261.9798678054012</v>
       </c>
       <c r="M25" t="n">
-        <v>276.221038312861</v>
+        <v>276.2210383128611</v>
       </c>
       <c r="N25" t="n">
-        <v>269.6531194061586</v>
+        <v>269.6531194061587</v>
       </c>
       <c r="O25" t="n">
-        <v>249.0683003936881</v>
+        <v>249.0683003936882</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652962</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991164</v>
       </c>
       <c r="R25" t="n">
-        <v>79.23152905500261</v>
+        <v>79.23152905500265</v>
       </c>
       <c r="S25" t="n">
-        <v>30.70902571743631</v>
+        <v>30.70902571743633</v>
       </c>
       <c r="T25" t="n">
-        <v>7.529077771098105</v>
+        <v>7.52907777109811</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09611588643955042</v>
+        <v>0.09611588643955048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060959</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>321.4648873412842</v>
+        <v>221.6165613322795</v>
       </c>
       <c r="K11" t="n">
-        <v>603.7569836841619</v>
+        <v>603.7569836841623</v>
       </c>
       <c r="L11" t="n">
-        <v>801.8186003897561</v>
+        <v>801.8186003897564</v>
       </c>
       <c r="M11" t="n">
-        <v>459.4384417017055</v>
+        <v>908.9519751945384</v>
       </c>
       <c r="N11" t="n">
-        <v>665.4300084935774</v>
+        <v>908.8799729323979</v>
       </c>
       <c r="O11" t="n">
-        <v>812.5855070215268</v>
+        <v>431.7853257587818</v>
       </c>
       <c r="P11" t="n">
-        <v>655.4679981829056</v>
+        <v>655.4679981829058</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.2273914633033</v>
+        <v>201.9124008033989</v>
       </c>
       <c r="R11" t="n">
-        <v>31.17895977049943</v>
+        <v>31.17895977049957</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.74157285763454</v>
+        <v>71.74157285763465</v>
       </c>
       <c r="K12" t="n">
-        <v>466.0272792547925</v>
+        <v>466.0272792547927</v>
       </c>
       <c r="L12" t="n">
-        <v>317.8154857068967</v>
+        <v>317.8154857068969</v>
       </c>
       <c r="M12" t="n">
-        <v>390.4280735251234</v>
+        <v>390.4280735251236</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3157296599254</v>
+        <v>415.3157296599258</v>
       </c>
       <c r="O12" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506241</v>
       </c>
       <c r="P12" t="n">
-        <v>382.9111489243863</v>
+        <v>267.3877015355342</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.3181666296027</v>
+        <v>213.5000679906956</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>30.3415460277575</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.22302802339101</v>
+        <v>31.22302802339108</v>
       </c>
       <c r="K13" t="n">
-        <v>182.4573462903593</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L13" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M13" t="n">
-        <v>315.8049152747016</v>
+        <v>315.8049152747017</v>
       </c>
       <c r="N13" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O13" t="n">
-        <v>273.6534283077278</v>
+        <v>273.6534283077279</v>
       </c>
       <c r="P13" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301897</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.39186174742194</v>
+        <v>61.39186174742203</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>321.4648873412842</v>
+        <v>152.3682721692106</v>
       </c>
       <c r="K14" t="n">
-        <v>279.6115711129972</v>
+        <v>279.6115711129975</v>
       </c>
       <c r="L14" t="n">
-        <v>801.8186003897561</v>
+        <v>801.8186003897564</v>
       </c>
       <c r="M14" t="n">
-        <v>908.951975194538</v>
+        <v>908.9519751945384</v>
       </c>
       <c r="N14" t="n">
-        <v>908.8799729323974</v>
+        <v>908.8799729323979</v>
       </c>
       <c r="O14" t="n">
-        <v>812.5855070215268</v>
+        <v>812.5855070215272</v>
       </c>
       <c r="P14" t="n">
-        <v>333.6692900114229</v>
+        <v>655.4679981829058</v>
       </c>
       <c r="Q14" t="n">
-        <v>301.4915944013162</v>
+        <v>214.5059212748869</v>
       </c>
       <c r="R14" t="n">
-        <v>96.89537964348187</v>
+        <v>31.17895977049957</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>71.74157285763454</v>
+        <v>71.74157285763465</v>
       </c>
       <c r="K15" t="n">
-        <v>201.5620422422139</v>
+        <v>371.4734389077944</v>
       </c>
       <c r="L15" t="n">
-        <v>688.6558310103559</v>
+        <v>317.8154857068969</v>
       </c>
       <c r="M15" t="n">
-        <v>390.4280735251234</v>
+        <v>390.4280735251236</v>
       </c>
       <c r="N15" t="n">
-        <v>415.3157296599254</v>
+        <v>415.3157296599258</v>
       </c>
       <c r="O15" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506241</v>
       </c>
       <c r="P15" t="n">
-        <v>276.536040633506</v>
+        <v>267.3877015355342</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.3181666296027</v>
+        <v>338.395454365452</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.22302802339101</v>
+        <v>31.22302802339108</v>
       </c>
       <c r="K16" t="n">
-        <v>182.4573462903593</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L16" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8049152747016</v>
+        <v>315.8049152746992</v>
       </c>
       <c r="N16" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O16" t="n">
-        <v>273.6534283077278</v>
+        <v>273.6534283077279</v>
       </c>
       <c r="P16" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301897</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.39186174742194</v>
+        <v>61.39186174742203</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>152.3682721692105</v>
+        <v>321.4648873412844</v>
       </c>
       <c r="K17" t="n">
-        <v>603.7569836841619</v>
+        <v>360.3070192453395</v>
       </c>
       <c r="L17" t="n">
-        <v>801.8186003897561</v>
+        <v>801.8186003897564</v>
       </c>
       <c r="M17" t="n">
-        <v>756.7155969739613</v>
+        <v>459.4384417017059</v>
       </c>
       <c r="N17" t="n">
-        <v>471.5330485204133</v>
+        <v>908.8799729323979</v>
       </c>
       <c r="O17" t="n">
-        <v>812.5855070215268</v>
+        <v>812.5855070215272</v>
       </c>
       <c r="P17" t="n">
-        <v>655.4679981829056</v>
+        <v>655.4679981829058</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.2273914633033</v>
+        <v>414.2273914633035</v>
       </c>
       <c r="R17" t="n">
-        <v>96.89537964348187</v>
+        <v>31.17895977049957</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.74157285763454</v>
+        <v>71.74157285763465</v>
       </c>
       <c r="K18" t="n">
-        <v>466.0272792547925</v>
+        <v>466.0272792547927</v>
       </c>
       <c r="L18" t="n">
-        <v>317.8154857068967</v>
+        <v>317.8154857068969</v>
       </c>
       <c r="M18" t="n">
-        <v>390.4280735251234</v>
+        <v>390.4280735251236</v>
       </c>
       <c r="N18" t="n">
-        <v>415.3157296599254</v>
+        <v>415.3157296599258</v>
       </c>
       <c r="O18" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506241</v>
       </c>
       <c r="P18" t="n">
-        <v>267.387701535534</v>
+        <v>267.3877015355342</v>
       </c>
       <c r="Q18" t="n">
-        <v>243.841614018455</v>
+        <v>213.5000679906956</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30.3415460277575</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.22302802339101</v>
+        <v>31.22302802339108</v>
       </c>
       <c r="K19" t="n">
-        <v>182.4573462903593</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L19" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M19" t="n">
-        <v>315.8049152747016</v>
+        <v>315.8049152747017</v>
       </c>
       <c r="N19" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O19" t="n">
-        <v>273.6534283077278</v>
+        <v>273.6534283077279</v>
       </c>
       <c r="P19" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301897</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.39186174742194</v>
+        <v>61.39186174742203</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>152.3682721692105</v>
+        <v>152.3682721692106</v>
       </c>
       <c r="K20" t="n">
-        <v>603.7569836841619</v>
+        <v>603.7569836841623</v>
       </c>
       <c r="L20" t="n">
-        <v>801.8186003897561</v>
+        <v>801.8186003897564</v>
       </c>
       <c r="M20" t="n">
-        <v>908.951975194538</v>
+        <v>765.8852736977021</v>
       </c>
       <c r="N20" t="n">
-        <v>908.8799729323974</v>
+        <v>908.8799729323979</v>
       </c>
       <c r="O20" t="n">
-        <v>812.5855070215268</v>
+        <v>431.7853257587818</v>
       </c>
       <c r="P20" t="n">
-        <v>343.9161060832317</v>
+        <v>655.4679981829058</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.9124008033986</v>
+        <v>414.2273914633035</v>
       </c>
       <c r="R20" t="n">
-        <v>31.17895977049943</v>
+        <v>31.17895977049957</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>71.74157285763454</v>
+        <v>71.74157285763465</v>
       </c>
       <c r="K21" t="n">
-        <v>466.0272792547925</v>
+        <v>466.0272792547927</v>
       </c>
       <c r="L21" t="n">
-        <v>317.8154857068967</v>
+        <v>317.8154857068969</v>
       </c>
       <c r="M21" t="n">
-        <v>390.4280735251234</v>
+        <v>390.4280735251236</v>
       </c>
       <c r="N21" t="n">
-        <v>415.3157296599254</v>
+        <v>415.3157296599258</v>
       </c>
       <c r="O21" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506241</v>
       </c>
       <c r="P21" t="n">
-        <v>267.387701535534</v>
+        <v>267.3877015355342</v>
       </c>
       <c r="Q21" t="n">
-        <v>243.841614018455</v>
+        <v>243.8416140184532</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.22302802339101</v>
+        <v>31.22302802339108</v>
       </c>
       <c r="K22" t="n">
-        <v>182.4573462903593</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L22" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M22" t="n">
-        <v>315.8049152747016</v>
+        <v>315.8049152747017</v>
       </c>
       <c r="N22" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O22" t="n">
-        <v>273.6534283077278</v>
+        <v>273.6534283077279</v>
       </c>
       <c r="P22" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301897</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.39186174742194</v>
+        <v>61.39186174742203</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>152.3682721692105</v>
+        <v>321.4648873412844</v>
       </c>
       <c r="K23" t="n">
-        <v>603.7569836841619</v>
+        <v>603.7569836841623</v>
       </c>
       <c r="L23" t="n">
-        <v>801.8186003897561</v>
+        <v>384.157385839306</v>
       </c>
       <c r="M23" t="n">
-        <v>908.951975194538</v>
+        <v>908.9519751945384</v>
       </c>
       <c r="N23" t="n">
-        <v>908.8799729323974</v>
+        <v>908.8799729323979</v>
       </c>
       <c r="O23" t="n">
-        <v>812.5855070215268</v>
+        <v>812.5855070215272</v>
       </c>
       <c r="P23" t="n">
-        <v>343.9161060832317</v>
+        <v>592.4807054616059</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.9124008033986</v>
+        <v>201.9124008033989</v>
       </c>
       <c r="R23" t="n">
-        <v>31.17895977049943</v>
+        <v>31.17895977049957</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>71.74157285763454</v>
+        <v>71.74157285763465</v>
       </c>
       <c r="K24" t="n">
-        <v>466.0272792547925</v>
+        <v>371.4734389077944</v>
       </c>
       <c r="L24" t="n">
-        <v>317.8154857068967</v>
+        <v>317.8154857068969</v>
       </c>
       <c r="M24" t="n">
-        <v>390.4280735251234</v>
+        <v>390.4280735251236</v>
       </c>
       <c r="N24" t="n">
-        <v>415.3157296599254</v>
+        <v>415.3157296599258</v>
       </c>
       <c r="O24" t="n">
-        <v>357.4885165506238</v>
+        <v>357.4885165506241</v>
       </c>
       <c r="P24" t="n">
-        <v>267.387701535534</v>
+        <v>267.3877015355342</v>
       </c>
       <c r="Q24" t="n">
-        <v>243.841614018455</v>
+        <v>338.395454365452</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.22302802339101</v>
+        <v>31.22302802339108</v>
       </c>
       <c r="K25" t="n">
-        <v>182.4573462903593</v>
+        <v>182.4573462903594</v>
       </c>
       <c r="L25" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657173</v>
       </c>
       <c r="M25" t="n">
-        <v>315.8049152747016</v>
+        <v>315.8049152747017</v>
       </c>
       <c r="N25" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853874</v>
       </c>
       <c r="O25" t="n">
-        <v>273.6534283077278</v>
+        <v>273.6534283077279</v>
       </c>
       <c r="P25" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301897</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.39186174742194</v>
+        <v>61.39186174742203</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>809.3543492214183</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
@@ -36841,10 +36841,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>581.9206576708328</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36853,7 +36853,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,7 +37081,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37312,13 +37312,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>883.6236994779107</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120764</v>
@@ -37543,10 +37543,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>631.8075074371754</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37561,7 +37561,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37701,7 +37701,7 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>559.9327320482565</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>674.9245771183487</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
